--- a/src/test/java/files/xls/Sprint_1.xlsx
+++ b/src/test/java/files/xls/Sprint_1.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
-  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+  <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView activeTab="1" windowHeight="5205" windowWidth="15450" xWindow="0" yWindow="2910"/>
+    <workbookView windowHeight="8355" windowWidth="20385"/>
   </bookViews>
   <sheets>
     <sheet name="Test Cases" r:id="rId1" sheetId="1"/>
     <sheet name="TC_US004" r:id="rId2" sheetId="5"/>
   </sheets>
-  <calcPr calcId="125725" fullPrecision="1"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="1">
   <si>
     <t>TCID</t>
   </si>
@@ -26,200 +26,279 @@
     <t>Runmode</t>
   </si>
   <si>
+    <t>Results</t>
+  </si>
+  <si>
+    <t>TCUS004</t>
+  </si>
+  <si>
+    <t>Validate Create Repo</t>
+  </si>
+  <si>
     <t>Y</t>
   </si>
   <si>
-    <t>Results</t>
+    <t>FAIL</t>
+  </si>
+  <si>
+    <t>jsonBody</t>
+  </si>
+  <si>
+    <t>requestFile</t>
   </si>
   <si>
     <t>Error</t>
   </si>
   <si>
-    <t>Please enter your password</t>
-  </si>
-  <si>
-    <t>Enter a valid email address</t>
-  </si>
-  <si>
-    <t>jsonBody</t>
-  </si>
-  <si>
-    <t>lastName</t>
-  </si>
-  <si>
-    <t>emailid</t>
-  </si>
-  <si>
-    <t>password</t>
-  </si>
-  <si>
-    <t>orgName</t>
-  </si>
-  <si>
-    <t>{_x000d_  "name": "Test01",_x000d_  "description": "This is your first repository",_x000d_  "homepage": "https://github.com",_x000d_  "private": false,_x000d_  "has_issues": true,_x000d_  "has_projects": true,_x000d_  "has_wiki": true_x000d_}</t>
-  </si>
-  <si>
-    <t>adminlast</t>
-  </si>
-  <si>
-    <t>1234qwer</t>
-  </si>
-  <si>
-    <t>testorg</t>
-  </si>
-  <si>
-    <t>TC_US004</t>
-  </si>
-  <si>
-    <t>Validate Create Repo</t>
-  </si>
-  <si>
-    <t>user_Creation_SuccessMsg</t>
-  </si>
-  <si>
-    <t>User Created Successfully!</t>
-  </si>
-  <si>
-    <t>emailtest@truven.com</t>
-  </si>
-  <si>
-    <t>errmsg_LastName_Empty</t>
-  </si>
-  <si>
-    <t>Please enter your last Name</t>
-  </si>
-  <si>
-    <t>errmsg_Emailid_Empty</t>
-  </si>
-  <si>
-    <t>errmsg_Emailid_Invalid</t>
-  </si>
-  <si>
-    <t>Please enter your email address</t>
-  </si>
-  <si>
-    <t>Re-Enter Password does not match with Password</t>
-  </si>
-  <si>
-    <t>errmsg_Pass_Empty</t>
-  </si>
-  <si>
-    <t>errmsg_RePass_Empty</t>
-  </si>
-  <si>
-    <t>Please enter your Organization Name</t>
-  </si>
-  <si>
-    <t>errmsg_Org_Empty</t>
-  </si>
-  <si>
-    <t>reenterPass</t>
-  </si>
-  <si>
-    <t>errmsg_UserType_Empty</t>
-  </si>
-  <si>
-    <t>typeOfUser_InsurAgent</t>
-  </si>
-  <si>
-    <t>typeOfUser_Emp</t>
-  </si>
-  <si>
-    <t>typeOfUser_TruvenAdmin</t>
-  </si>
-  <si>
-    <t>TC_US007</t>
-  </si>
-  <si>
-    <t>User Management-Manage User (Update)-Insurance agent</t>
-  </si>
-  <si>
-    <t>Please select the type of user</t>
-  </si>
-  <si>
-    <t>Truven Admin</t>
-  </si>
-  <si>
-    <t>Insurance Agent</t>
-  </si>
-  <si>
-    <t>Employer</t>
-  </si>
-  <si>
-    <t>FAIL</t>
+    <t>{+  "name": "Test01",+  "description": "This is your first repository",+  "homepage": "https://github.com",+  "private": false,+  "has_issues": true,+  "has_projects": true,+  "has_wiki": true+}</t>
   </si>
   <si>
     <t>PASS</t>
-  </si>
-  <si>
-    <t>requestFile</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="0"/>
-  <fonts count="6">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="176" formatCode="_ &quot;₹&quot;\ * #,##0_ ;_ &quot;₹&quot;\ * \-#,##0_ ;_ &quot;₹&quot;\ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ &quot;₹&quot;\ * #,##0.00_ ;_ &quot;₹&quot;\ * \-#,##0.00_ ;_ &quot;₹&quot;\ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="179" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u val="single"/>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="0"/>
-    </font>
-    <font>
-      <u val="single"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF2B579A"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
       <sz val="11"/>
       <color indexed="12"/>
       <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="0"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF2B579A"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="0"/>
-    </font>
-    <font>
+      <charset val="0"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF2B579A"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="0"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="64"/>
-        <bgColor indexed="65"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="gray125">
-        <fgColor indexed="64"/>
-        <bgColor indexed="65"/>
+  <fills count="35">
+    <fill>
+      <patternFill patternType="none"/>
+    </fill>
+    <fill>
+      <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
@@ -230,17 +309,216 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="12">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -255,74 +533,283 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color rgb="FF7F7F7F"/>
       </right>
       <top style="thin">
-        <color indexed="64"/>
+        <color rgb="FF7F7F7F"/>
       </top>
-      <bottom/>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="4">
+  <cellStyleXfs count="51">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="22" fontId="3" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyFont="0" applyProtection="0" borderId="0" fillId="0" fontId="1" numFmtId="179">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyFont="0" applyProtection="0" borderId="0" fillId="0" fontId="1" numFmtId="178">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyFont="0" applyProtection="0" borderId="0" fillId="0" fontId="1" numFmtId="176">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyFont="0" applyProtection="0" borderId="0" fillId="0" fontId="1" numFmtId="177">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyFont="0" applyProtection="0" borderId="0" fillId="0" fontId="1" numFmtId="9">
+      <alignment vertical="center"/>
+    </xf>
+    <xf borderId="6" fillId="11" fontId="9" numFmtId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyNumberFormat="0" applyProtection="0" borderId="5" fillId="7" fontId="6" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="3" fillId="0" fontId="16" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyFont="0" applyNumberFormat="0" applyProtection="0" borderId="4" fillId="6" fontId="1" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="12" numFmtId="0"/>
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="27" fontId="2" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="8" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="26" fontId="3" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="15" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="5" fontId="3" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="11" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="7" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="3" fillId="0" fontId="5" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="7" fillId="0" fontId="4" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="4" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyNumberFormat="0" applyProtection="0" borderId="8" fillId="31" fontId="20" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="19" fontId="2" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="21" fontId="18" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyNumberFormat="0" applyProtection="0" borderId="9" fillId="18" fontId="14" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="10" fontId="3" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyNumberFormat="0" applyProtection="0" borderId="8" fillId="18" fontId="13" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="10" fillId="0" fontId="17" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="11" fillId="0" fontId="21" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="15" fontId="10" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="25" fontId="19" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="24" fontId="2" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="23" fontId="3" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="9" fontId="2" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="30" fontId="2" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="29" fontId="3" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="28" fontId="3" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="14" fontId="2" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="13" fontId="2" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="34" fontId="3" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="8" fontId="2" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="12" fontId="3" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="33" fontId="3" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="20" fontId="2" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="4" fontId="3" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="17" fontId="2" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="16" fontId="2" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="32" fontId="3" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="3" fontId="2" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf borderId="1" fillId="2" fontId="5" numFmtId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="8">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="1" applyFill="1" borderId="2" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="1" borderId="2" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="1" applyFill="1" borderId="3" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyAlignment="1" applyBorder="1" borderId="2" fillId="0" fontId="0" numFmtId="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" borderId="3" fillId="3" fontId="0" numFmtId="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" borderId="2" fillId="3" fontId="0" numFmtId="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" borderId="2" fillId="0" fontId="0" numFmtId="0" xfId="0">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" borderId="1" fillId="2" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf applyBorder="1" applyFill="1" borderId="2" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" borderId="1" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFill="1" borderId="1" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyBorder="1" borderId="1" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment wrapText="1"/>
     </xf>
     <xf applyBorder="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" borderId="2" fillId="3" fontId="0" numFmtId="0" xfId="0">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="4">
+  <cellStyles count="51">
     <cellStyle builtinId="0" name="Normal" xfId="0"/>
-    <cellStyle name="ConditionalFormatStyle" xfId="1"/>
-    <cellStyle name="HeaderStyle" xfId="2"/>
-    <cellStyle builtinId="8" name="Hyperlink" xfId="3"/>
+    <cellStyle builtinId="31" name="40% - Accent1" xfId="1"/>
+    <cellStyle builtinId="3" name="Comma" xfId="2"/>
+    <cellStyle builtinId="6" name="Comma [0]" xfId="3"/>
+    <cellStyle builtinId="7" name="Currency [0]" xfId="4"/>
+    <cellStyle builtinId="4" name="Currency" xfId="5"/>
+    <cellStyle builtinId="5" name="Percent" xfId="6"/>
+    <cellStyle name="HeaderStyle" xfId="7"/>
+    <cellStyle builtinId="23" name="Check Cell" xfId="8"/>
+    <cellStyle builtinId="17" name="Heading 2" xfId="9"/>
+    <cellStyle builtinId="10" name="Note" xfId="10"/>
+    <cellStyle builtinId="8" name="Hyperlink" xfId="11"/>
+    <cellStyle builtinId="44" name="60% - Accent4" xfId="12"/>
+    <cellStyle builtinId="9" name="Followed Hyperlink" xfId="13"/>
+    <cellStyle builtinId="39" name="40% - Accent3" xfId="14"/>
+    <cellStyle builtinId="11" name="Warning Text" xfId="15"/>
+    <cellStyle builtinId="35" name="40% - Accent2" xfId="16"/>
+    <cellStyle builtinId="15" name="Title" xfId="17"/>
+    <cellStyle builtinId="53" name="CExplanatory Text" xfId="18"/>
+    <cellStyle builtinId="16" name="Heading 1" xfId="19"/>
+    <cellStyle builtinId="18" name="Heading 3" xfId="20"/>
+    <cellStyle builtinId="19" name="Heading 4" xfId="21"/>
+    <cellStyle builtinId="20" name="Input" xfId="22"/>
+    <cellStyle builtinId="40" name="60% - Accent3" xfId="23"/>
+    <cellStyle builtinId="26" name="Good" xfId="24"/>
+    <cellStyle builtinId="21" name="Output" xfId="25"/>
+    <cellStyle builtinId="30" name="20% - Accent1" xfId="26"/>
+    <cellStyle builtinId="22" name="Calculation" xfId="27"/>
+    <cellStyle builtinId="24" name="Linked Cell" xfId="28"/>
+    <cellStyle builtinId="25" name="Total" xfId="29"/>
+    <cellStyle builtinId="27" name="Bad" xfId="30"/>
+    <cellStyle builtinId="28" name="Neutral" xfId="31"/>
+    <cellStyle builtinId="29" name="Accent1" xfId="32"/>
+    <cellStyle builtinId="46" name="20% - Accent5" xfId="33"/>
+    <cellStyle builtinId="32" name="60% - Accent1" xfId="34"/>
+    <cellStyle builtinId="33" name="Accent2" xfId="35"/>
+    <cellStyle builtinId="34" name="20% - Accent2" xfId="36"/>
+    <cellStyle builtinId="50" name="20% - Accent6" xfId="37"/>
+    <cellStyle builtinId="36" name="60% - Accent2" xfId="38"/>
+    <cellStyle builtinId="37" name="Accent3" xfId="39"/>
+    <cellStyle builtinId="38" name="20% - Accent3" xfId="40"/>
+    <cellStyle builtinId="41" name="Accent4" xfId="41"/>
+    <cellStyle builtinId="42" name="20% - Accent4" xfId="42"/>
+    <cellStyle builtinId="43" name="40% - Accent4" xfId="43"/>
+    <cellStyle builtinId="45" name="Accent5" xfId="44"/>
+    <cellStyle builtinId="47" name="40% - Accent5" xfId="45"/>
+    <cellStyle builtinId="48" name="60% - Accent5" xfId="46"/>
+    <cellStyle builtinId="49" name="Accent6" xfId="47"/>
+    <cellStyle builtinId="51" name="40% - Accent6" xfId="48"/>
+    <cellStyle builtinId="52" name="60% - Accent6" xfId="49"/>
+    <cellStyle name="ConditionalFormatStyle" xfId="50"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -613,84 +1100,83 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <sheetPr/>
   <dimension ref="A1:E7"/>
   <sheetViews>
-    <sheetView view="normal" workbookViewId="0">
-      <selection activeCell="B8" pane="topLeft" sqref="B8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelCol="3" outlineLevelRow="6"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="14.5" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="55.83203125" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="9.5" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="7.44140625" collapsed="true"/>
+    <col min="1" max="1" customWidth="true" width="14.5047619047619" collapsed="false"/>
+    <col min="2" max="2" customWidth="true" width="55.8285714285714" collapsed="false"/>
+    <col min="3" max="3" customWidth="true" width="9.5047619047619" collapsed="false"/>
+    <col min="4" max="4" customWidth="true" width="7.44140625" collapsed="false" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>4</v>
+      <c r="D1" s="4" t="s">
+        <v>3</v>
       </c>
     </row>
     <row customHeight="1" ht="18" r="2" spans="1:4">
-      <c r="A2" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="B2" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>43</v>
+      <c r="A2" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>12</v>
       </c>
     </row>
     <row customHeight="1" ht="18" r="3" spans="1:4">
-      <c r="A3" s="8"/>
-      <c r="B3" s="9"/>
-      <c r="C3" s="8"/>
-      <c r="D3" s="8"/>
+      <c r="A3" s="6"/>
+      <c r="B3" s="7"/>
+      <c r="C3" s="6"/>
+      <c r="D3" s="6"/>
     </row>
     <row r="4" spans="1:4">
-      <c r="A4" s="8"/>
-      <c r="B4" s="8"/>
-      <c r="C4" s="8"/>
-      <c r="D4" s="8"/>
+      <c r="A4" s="6"/>
+      <c r="B4" s="6"/>
+      <c r="C4" s="6"/>
+      <c r="D4" s="6"/>
     </row>
     <row r="5" spans="1:4">
-      <c r="A5" s="8"/>
-      <c r="B5" s="8"/>
-      <c r="C5" s="8"/>
-      <c r="D5" s="8"/>
+      <c r="A5" s="6"/>
+      <c r="B5" s="6"/>
+      <c r="C5" s="6"/>
+      <c r="D5" s="6"/>
     </row>
     <row r="6" spans="1:4">
-      <c r="A6" s="8"/>
-      <c r="B6" s="8"/>
-      <c r="C6" s="8"/>
-      <c r="D6" s="8"/>
+      <c r="A6" s="6"/>
+      <c r="B6" s="6"/>
+      <c r="C6" s="6"/>
+      <c r="D6" s="6"/>
     </row>
     <row r="7" spans="1:4">
-      <c r="A7" s="8"/>
-      <c r="B7" s="8"/>
-      <c r="C7" s="8"/>
-      <c r="D7" s="8"/>
+      <c r="A7" s="6"/>
+      <c r="B7" s="6"/>
+      <c r="C7" s="6"/>
+      <c r="D7" s="6"/>
     </row>
   </sheetData>
   <dataValidations count="1">
@@ -698,63 +1184,61 @@
       <formula1>"Y,N"</formula1>
     </dataValidation>
   </dataValidations>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-  <pageSetup orientation="portrait"/>
-  <headerFooter alignWithMargins="0" differentFirst="0" differentOddEven="0" scaleWithDoc="1"/>
-  <extLst/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.699305555555556" right="0.699305555555556" top="0.75"/>
+  <pageSetup orientation="portrait" paperSize="1"/>
+  <headerFooter alignWithMargins="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <sheetPr/>
   <dimension ref="A1:F2"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="normal" workbookViewId="0">
-      <selection activeCell="G16" pane="topLeft" sqref="G16"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelCol="4" outlineLevelRow="1"/>
   <cols>
-    <col min="1" max="2" bestFit="true" customWidth="true" width="10.0" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="7.33203125" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="7.44140625" collapsed="true"/>
+    <col min="1" max="2" customWidth="true" width="10.0" collapsed="false"/>
+    <col min="3" max="3" customWidth="true" width="7.33333333333333" collapsed="false"/>
+    <col min="4" max="4" customWidth="true" width="7.43809523809524" collapsed="false"/>
   </cols>
   <sheetData>
-    <row ht="27" r="1" spans="1:5">
-      <c r="A1" s="10" t="s">
+    <row ht="30" r="1" spans="1:5">
+      <c r="A1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="10" t="s">
-        <v>45</v>
-      </c>
-      <c r="C1" s="3" t="s">
+      <c r="B1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>5</v>
+      <c r="D1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="2" spans="1:5">
-      <c r="A2" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B2" s="2"/>
-      <c r="C2" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="E2" s="2"/>
+      <c r="A2" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2" s="3"/>
+      <c r="C2" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" s="3"/>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-  <pageSetup orientation="portrait"/>
-  <headerFooter alignWithMargins="0" differentFirst="0" differentOddEven="0" scaleWithDoc="1"/>
-  <extLst/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.699305555555556" right="0.699305555555556" top="0.75"/>
+  <pageSetup orientation="portrait" paperSize="1"/>
+  <headerFooter alignWithMargins="0"/>
 </worksheet>
 </file>